--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -471,6 +471,11 @@
           <t>dalum</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -497,11 +502,6 @@
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -539,6 +539,11 @@
           <t>elsted</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -565,11 +570,6 @@
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -607,6 +607,11 @@
           <t>holmehave</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -633,11 +638,6 @@
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -675,6 +675,11 @@
           <t>hovedværket</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -701,11 +706,6 @@
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -743,6 +743,11 @@
           <t>kasted</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -769,11 +774,6 @@
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -811,6 +811,11 @@
           <t>lindved</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -837,11 +842,6 @@
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -879,6 +879,11 @@
           <t>lunde</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -905,11 +910,6 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -947,6 +947,11 @@
           <t>stavstrup</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -973,11 +978,6 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1015,6 +1015,11 @@
           <t>truelsbjerg</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>10-250 cm depth</t>
@@ -1041,11 +1046,6 @@
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1083,6 +1083,11 @@
           <t>østerby</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -1109,11 +1114,6 @@
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1151,6 +1151,11 @@
           <t>sydværket</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -1177,11 +1182,6 @@
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1219,6 +1219,11 @@
           <t>bredkær</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -1245,11 +1250,6 @@
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1287,6 +1287,11 @@
           <t>bagterp</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -1313,11 +1318,6 @@
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1355,6 +1355,11 @@
           <t>egedal</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -1381,11 +1386,6 @@
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1423,6 +1423,11 @@
           <t>fredensborg</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -1449,11 +1454,6 @@
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1491,6 +1491,11 @@
           <t>sdr vejle</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>0-120 cm depth</t>
@@ -1517,11 +1522,6 @@
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1559,6 +1559,11 @@
           <t>søndre vandværk kolding</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -1585,11 +1590,6 @@
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1627,6 +1627,11 @@
           <t>follerup</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -1653,11 +1658,6 @@
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1695,6 +1695,11 @@
           <t>astrup</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>0-220 cm depth</t>
@@ -1721,11 +1726,6 @@
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1763,6 +1763,11 @@
           <t>nordværket</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>0-100 cm depth</t>
@@ -1789,11 +1794,6 @@
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1831,6 +1831,11 @@
           <t xml:space="preserve">kildeværket </t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -1857,11 +1862,6 @@
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>
@@ -1899,6 +1899,11 @@
           <t>esbjergværket</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>30/06/2022 00:00</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
@@ -1925,11 +1930,6 @@
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Sandfilter</t>
         </is>

--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1697,7 +1697,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>30/06/2022 00:00</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">

--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -496,6 +496,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2018-09-06</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -564,6 +569,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2018-10-09</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -632,6 +642,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2018-09-03</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -700,6 +715,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2018-06-25</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -768,6 +788,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2018-07-30</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -836,6 +861,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2018-09-06</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -904,6 +934,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2018-05-15</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -972,6 +1007,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2018-07-03</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1040,6 +1080,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2018-10-09</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1108,6 +1153,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2018-06-06</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1176,6 +1226,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2020-10-28</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1244,6 +1299,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1312,6 +1372,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1380,6 +1445,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1448,6 +1518,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1516,6 +1591,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1584,6 +1664,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2018-08-20</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1652,6 +1737,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1720,6 +1810,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1788,6 +1883,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1856,6 +1956,11 @@
           <t>Urban</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>Urban</t>
@@ -1922,6 +2027,11 @@
       <c r="L23" t="inlineStr">
         <is>
           <t>Urban</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">

--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2018-10-28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">

--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -503,19 +503,24 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD10945</t>
+          <t>MFD10944</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -524,10 +529,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>56.2384</v>
+        <v>55.3571</v>
       </c>
       <c r="D3">
-        <v>10.2235</v>
+        <v>10.3742</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -536,22 +541,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>elsted</t>
+          <t>dalum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -571,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -581,14 +586,19 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD10946</t>
+          <t>MFD10945</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -597,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>55.2903</v>
+        <v>56.2384</v>
       </c>
       <c r="D4">
-        <v>10.1887</v>
+        <v>10.2235</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -609,17 +619,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>holmehave</t>
+          <t>elsted</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -644,24 +654,29 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD10947</t>
+          <t>MFD10945</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -670,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>55.3932</v>
+        <v>56.2384</v>
       </c>
       <c r="D5">
-        <v>10.373</v>
+        <v>10.2235</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -682,22 +697,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>hovedværket</t>
+          <t>elsted</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -717,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -727,14 +742,19 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD10948</t>
+          <t>MFD10946</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -743,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>56.2091</v>
+        <v>55.2903</v>
       </c>
       <c r="D6">
-        <v>10.1273</v>
+        <v>10.1887</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -755,22 +775,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>kasted</t>
+          <t>holmehave</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -790,24 +810,29 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD10949</t>
+          <t>MFD10946</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -816,10 +841,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>55.3376</v>
+        <v>55.2903</v>
       </c>
       <c r="D7">
-        <v>10.4111</v>
+        <v>10.1887</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -828,22 +853,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>lindved</t>
+          <t>holmehave</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -863,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -873,14 +898,19 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD10950</t>
+          <t>MFD10947</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -889,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>55.1365</v>
+        <v>55.3932</v>
       </c>
       <c r="D8">
-        <v>10.526</v>
+        <v>10.373</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -901,17 +931,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>lunde</t>
+          <t>hovedværket</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -936,24 +966,29 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD10951</t>
+          <t>MFD10947</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -962,10 +997,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>56.1284</v>
+        <v>55.3932</v>
       </c>
       <c r="D9">
-        <v>10.1136</v>
+        <v>10.373</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -974,17 +1009,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>stavstrup</t>
+          <t>hovedværket</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1009,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1019,14 +1054,19 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD10952</t>
+          <t>MFD10948</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1035,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>56.2339</v>
+        <v>56.2091</v>
       </c>
       <c r="D10">
-        <v>10.1682</v>
+        <v>10.1273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1047,22 +1087,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>truelsbjerg</t>
+          <t>kasted</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10-250 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1082,24 +1122,29 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD10953</t>
+          <t>MFD10948</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1108,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>56.0792</v>
+        <v>56.2091</v>
       </c>
       <c r="D11">
-        <v>10.1366</v>
+        <v>10.1273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1120,22 +1165,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>østerby</t>
+          <t>kasted</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1155,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1165,14 +1210,19 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD10954</t>
+          <t>MFD10949</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1181,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>56.4183</v>
+        <v>55.3376</v>
       </c>
       <c r="D12">
-        <v>9.3888</v>
+        <v>10.4111</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1193,17 +1243,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sydværket</t>
+          <t>lindved</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2018-10-28</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1228,24 +1278,29 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD10955</t>
+          <t>MFD10949</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1254,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>57.4369</v>
+        <v>55.3376</v>
       </c>
       <c r="D13">
-        <v>10.0496</v>
+        <v>10.4111</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1266,22 +1321,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>bredkær</t>
+          <t>lindved</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1301,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1311,14 +1366,19 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD10956</t>
+          <t>MFD10950</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1327,10 +1387,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>57.4359</v>
+        <v>55.1365</v>
       </c>
       <c r="D14">
-        <v>10.0117</v>
+        <v>10.526</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1339,22 +1399,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>bagterp</t>
+          <t>lunde</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2021-10-27</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1374,24 +1434,29 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2021-10-27</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD10957</t>
+          <t>MFD10950</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1400,10 +1465,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>56.1831</v>
+        <v>55.1365</v>
       </c>
       <c r="D15">
-        <v>10.676</v>
+        <v>10.526</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1412,22 +1477,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>egedal</t>
+          <t>lunde</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1447,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1457,14 +1522,19 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD10958</t>
+          <t>MFD10951</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1473,10 +1543,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>56.0475</v>
+        <v>56.1284</v>
       </c>
       <c r="D16">
-        <v>9.9411</v>
+        <v>10.1136</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1485,22 +1555,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>fredensborg</t>
+          <t>stavstrup</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1520,24 +1590,29 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD10959</t>
+          <t>MFD10951</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1546,10 +1621,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>55.7019</v>
+        <v>56.1284</v>
       </c>
       <c r="D17">
-        <v>9.536</v>
+        <v>10.1136</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1558,22 +1633,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sdr vejle</t>
+          <t>stavstrup</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1593,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1603,14 +1678,19 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD10960</t>
+          <t>MFD10952</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1619,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>55.4723</v>
+        <v>56.2339</v>
       </c>
       <c r="D18">
-        <v>9.465999999999999</v>
+        <v>10.1682</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1631,22 +1711,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>søndre vandværk kolding</t>
+          <t>truelsbjerg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>10-250 cm depth</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1666,24 +1746,29 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2018-08-20</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD10961</t>
+          <t>MFD10952</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1692,10 +1777,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>55.5975</v>
+        <v>56.2339</v>
       </c>
       <c r="D19">
-        <v>9.6157</v>
+        <v>10.1682</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1704,22 +1789,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>follerup</t>
+          <t>truelsbjerg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>10-250 cm depth</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1739,7 +1824,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1749,14 +1834,19 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD10962</t>
+          <t>MFD10953</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1765,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>55.4938</v>
+        <v>56.0792</v>
       </c>
       <c r="D20">
-        <v>8.4801</v>
+        <v>10.1366</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1777,22 +1867,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>astrup</t>
+          <t>østerby</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0-220 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1812,24 +1902,29 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD10963</t>
+          <t>MFD10953</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1838,10 +1933,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>56.4749</v>
+        <v>56.0792</v>
       </c>
       <c r="D21">
-        <v>9.411899999999999</v>
+        <v>10.1366</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1850,17 +1945,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>nordværket</t>
+          <t>østerby</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1885,7 +1980,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1895,14 +1990,19 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD10964</t>
+          <t>MFD10954</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1911,10 +2011,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>56.1431</v>
+        <v>56.4183</v>
       </c>
       <c r="D22">
-        <v>9.1585</v>
+        <v>9.3888</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1923,22 +2023,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>3120</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">kildeværket </t>
+          <t>sydværket</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2018-10-28</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1958,90 +2058,1816 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Sandfilter</t>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>MFD10954</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>56.4183</v>
+      </c>
+      <c r="D23">
+        <v>9.3888</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>sydværket</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2018-10-28</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2020-10-28</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MFD10955</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>57.4369</v>
+      </c>
+      <c r="D24">
+        <v>10.0496</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>bredkær</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0-140 cm depth</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MFD10955</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>57.4369</v>
+      </c>
+      <c r="D25">
+        <v>10.0496</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>bredkær</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0-140 cm depth</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2021-12-14</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MFD10956</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>57.4359</v>
+      </c>
+      <c r="D26">
+        <v>10.0117</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>bagterp</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MFD10956</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>57.4359</v>
+      </c>
+      <c r="D27">
+        <v>10.0117</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>bagterp</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2021-10-27</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MFD10957</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>56.1831</v>
+      </c>
+      <c r="D28">
+        <v>10.676</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>egedal</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MFD10957</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>56.1831</v>
+      </c>
+      <c r="D29">
+        <v>10.676</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>egedal</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2020-08-26</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MFD10958</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>56.0475</v>
+      </c>
+      <c r="D30">
+        <v>9.9411</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>fredensborg</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MFD10958</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>56.0475</v>
+      </c>
+      <c r="D31">
+        <v>9.9411</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>fredensborg</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MFD10959</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>55.7019</v>
+      </c>
+      <c r="D32">
+        <v>9.536</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sdr vejle</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MFD10959</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>55.7019</v>
+      </c>
+      <c r="D33">
+        <v>9.536</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>sdr vejle</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0-120 cm depth</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MFD10960</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>55.4723</v>
+      </c>
+      <c r="D34">
+        <v>9.465999999999999</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>søndre vandværk kolding</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2018-08-20</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MFD10960</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>55.4723</v>
+      </c>
+      <c r="D35">
+        <v>9.465999999999999</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>søndre vandværk kolding</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2020-08-20</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2018-08-20</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MFD10961</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>55.5975</v>
+      </c>
+      <c r="D36">
+        <v>9.6157</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>follerup</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MFD10961</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>55.5975</v>
+      </c>
+      <c r="D37">
+        <v>9.6157</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>follerup</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2020-09-14</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MFD10962</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>55.4938</v>
+      </c>
+      <c r="D38">
+        <v>8.4801</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>astrup</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0-220 cm depth</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MFD10962</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>55.4938</v>
+      </c>
+      <c r="D39">
+        <v>8.4801</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>astrup</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0-220 cm depth</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MFD10963</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>56.4749</v>
+      </c>
+      <c r="D40">
+        <v>9.411899999999999</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>nordværket</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MFD10963</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>56.4749</v>
+      </c>
+      <c r="D41">
+        <v>9.411899999999999</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>nordværket</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0-100 cm depth</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2020-10-22</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MFD10964</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>56.1431</v>
+      </c>
+      <c r="D42">
+        <v>9.1585</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kildeværket </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0-140 cm depth</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MFD10964</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>56.1431</v>
+      </c>
+      <c r="D43">
+        <v>9.1585</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kildeværket </t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0-140 cm depth</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2021-04-15</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>MFD10965</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C23">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C44">
         <v>55.5045</v>
       </c>
-      <c r="D23">
+      <c r="D44">
         <v>8.494400000000001</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>esbjergværket</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>2020-11-30</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>0-140 cm depth</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>2020-11-30</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Sandfilter</t>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Drinking water</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MFD10965</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>55.5045</v>
+      </c>
+      <c r="D45">
+        <v>8.494400000000001</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>drinking_water</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>esbjergværket</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0-140 cm depth</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>P16_2</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>2020-11-30</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>waterworks stage</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>sandfilter</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_2/P16_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +520,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MFD10944</t>
+          <t>MFD10945</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>55.3571</v>
+        <v>56.2384</v>
       </c>
       <c r="D3">
-        <v>10.3742</v>
+        <v>10.2235</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -546,17 +546,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>dalum</t>
+          <t>elsted</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MFD10945</t>
+          <t>MFD10946</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="C4">
-        <v>56.2384</v>
+        <v>55.2903</v>
       </c>
       <c r="D4">
-        <v>10.2235</v>
+        <v>10.1887</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>elsted</t>
+          <t>holmehave</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-09-03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MFD10945</t>
+          <t>MFD10947</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>56.2384</v>
+        <v>55.3932</v>
       </c>
       <c r="D5">
-        <v>10.2235</v>
+        <v>10.373</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -702,17 +702,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>elsted</t>
+          <t>hovedværket</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-06-25</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MFD10946</t>
+          <t>MFD10948</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -763,10 +763,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>55.2903</v>
+        <v>56.2091</v>
       </c>
       <c r="D6">
-        <v>10.1887</v>
+        <v>10.1273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -780,17 +780,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>holmehave</t>
+          <t>kasted</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-07-30</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MFD10946</t>
+          <t>MFD10949</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="C7">
-        <v>55.2903</v>
+        <v>55.3376</v>
       </c>
       <c r="D7">
-        <v>10.1887</v>
+        <v>10.4111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -858,17 +858,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>holmehave</t>
+          <t>lindved</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2018-09-03</t>
+          <t>2018-09-06</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFD10947</t>
+          <t>MFD10950</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>55.3932</v>
+        <v>55.1365</v>
       </c>
       <c r="D8">
-        <v>10.373</v>
+        <v>10.526</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -936,12 +936,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>hovedværket</t>
+          <t>lunde</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-05-15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MFD10947</t>
+          <t>MFD10951</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>55.3932</v>
+        <v>56.1284</v>
       </c>
       <c r="D9">
-        <v>10.373</v>
+        <v>10.1136</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>hovedværket</t>
+          <t>stavstrup</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2018-06-25</t>
+          <t>2018-07-03</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MFD10948</t>
+          <t>MFD10952</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="C10">
-        <v>56.2091</v>
+        <v>56.2339</v>
       </c>
       <c r="D10">
-        <v>10.1273</v>
+        <v>10.1682</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1092,17 +1092,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>kasted</t>
+          <t>truelsbjerg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>10-250 cm depth</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-10-09</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MFD10948</t>
+          <t>MFD10953</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C11">
-        <v>56.2091</v>
+        <v>56.0792</v>
       </c>
       <c r="D11">
-        <v>10.1273</v>
+        <v>10.1366</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>kasted</t>
+          <t>østerby</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2018-07-30</t>
+          <t>2018-06-06</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFD10949</t>
+          <t>MFD10954</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="C12">
-        <v>55.3376</v>
+        <v>56.4183</v>
       </c>
       <c r="D12">
-        <v>10.4111</v>
+        <v>9.3888</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>lindved</t>
+          <t>sydværket</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2018-10-28</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MFD10949</t>
+          <t>MFD10955</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>55.3376</v>
+        <v>57.4369</v>
       </c>
       <c r="D13">
-        <v>10.4111</v>
+        <v>10.0496</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>lindved</t>
+          <t>bredkær</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1378,7 +1378,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MFD10950</t>
+          <t>MFD10956</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1387,10 +1387,10 @@
         </is>
       </c>
       <c r="C14">
-        <v>55.1365</v>
+        <v>57.4359</v>
       </c>
       <c r="D14">
-        <v>10.526</v>
+        <v>10.0117</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1404,17 +1404,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>lunde</t>
+          <t>bagterp</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MFD10950</t>
+          <t>MFD10957</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>55.1365</v>
+        <v>56.1831</v>
       </c>
       <c r="D15">
-        <v>10.526</v>
+        <v>10.676</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1482,17 +1482,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>lunde</t>
+          <t>egedal</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2018-05-15</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1534,7 +1534,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFD10951</t>
+          <t>MFD10958</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="C16">
-        <v>56.1284</v>
+        <v>56.0475</v>
       </c>
       <c r="D16">
-        <v>10.1136</v>
+        <v>9.9411</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1560,17 +1560,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>stavstrup</t>
+          <t>fredensborg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MFD10951</t>
+          <t>MFD10959</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="C17">
-        <v>56.1284</v>
+        <v>55.7019</v>
       </c>
       <c r="D17">
-        <v>10.1136</v>
+        <v>9.536</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,17 +1638,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>stavstrup</t>
+          <t>sdr vejle</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0-140 cm depth</t>
+          <t>0-120 cm depth</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1668,12 +1668,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2018-07-03</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MFD10952</t>
+          <t>MFD10960</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="C18">
-        <v>56.2339</v>
+        <v>55.4723</v>
       </c>
       <c r="D18">
-        <v>10.1682</v>
+        <v>9.465999999999999</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>truelsbjerg</t>
+          <t>søndre vandværk kolding</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10-250 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2018-08-20</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MFD10952</t>
+          <t>MFD10961</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="C19">
-        <v>56.2339</v>
+        <v>55.5975</v>
       </c>
       <c r="D19">
-        <v>10.1682</v>
+        <v>9.6157</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1794,17 +1794,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>truelsbjerg</t>
+          <t>follerup</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>10-250 cm depth</t>
+          <t>0-100 cm depth</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2018-10-09</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MFD10953</t>
+          <t>MFD10962</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="C20">
-        <v>56.0792</v>
+        <v>55.4938</v>
       </c>
       <c r="D20">
-        <v>10.1366</v>
+        <v>8.4801</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>østerby</t>
+          <t>astrup</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0-100 cm depth</t>
+          <t>0-220 cm depth</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MFD10953</t>
+          <t>MFD10963</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="C21">
-        <v>56.0792</v>
+        <v>56.4749</v>
       </c>
       <c r="D21">
-        <v>10.1366</v>
+        <v>9.411899999999999</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1950,12 +1950,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>østerby</t>
+          <t>nordværket</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1980,12 +1980,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2018-06-06</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2002,7 +2002,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MFD10954</t>
+          <t>MFD10964</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="C22">
-        <v>56.4183</v>
+        <v>56.1431</v>
       </c>
       <c r="D22">
-        <v>9.3888</v>
+        <v>9.1585</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2028,17 +2028,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sydværket</t>
+          <t xml:space="preserve">kildeværket </t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2018-10-28</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MFD10954</t>
+          <t>MFD10965</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2089,10 +2089,10 @@
         </is>
       </c>
       <c r="C23">
-        <v>56.4183</v>
+        <v>55.5045</v>
       </c>
       <c r="D23">
-        <v>9.3888</v>
+        <v>8.494400000000001</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2106,17 +2106,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sydværket</t>
+          <t>esbjergværket</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2018-10-28</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0-120 cm depth</t>
+          <t>0-140 cm depth</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2136,12 +2136,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Drinking water</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2150,1722 +2150,6 @@
         </is>
       </c>
       <c r="P23" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MFD10955</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>57.4369</v>
-      </c>
-      <c r="D24">
-        <v>10.0496</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>bredkær</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-12-14</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2021-12-14</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MFD10955</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>57.4369</v>
-      </c>
-      <c r="D25">
-        <v>10.0496</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>bredkær</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-12-14</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2021-12-14</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MFD10956</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>57.4359</v>
-      </c>
-      <c r="D26">
-        <v>10.0117</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>bagterp</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MFD10956</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C27">
-        <v>57.4359</v>
-      </c>
-      <c r="D27">
-        <v>10.0117</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>bagterp</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2021-10-27</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MFD10957</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C28">
-        <v>56.1831</v>
-      </c>
-      <c r="D28">
-        <v>10.676</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>egedal</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MFD10957</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C29">
-        <v>56.1831</v>
-      </c>
-      <c r="D29">
-        <v>10.676</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>egedal</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2020-08-26</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MFD10958</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>56.0475</v>
-      </c>
-      <c r="D30">
-        <v>9.9411</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>fredensborg</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-29</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2020-09-29</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MFD10958</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C31">
-        <v>56.0475</v>
-      </c>
-      <c r="D31">
-        <v>9.9411</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>fredensborg</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-29</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2020-09-29</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MFD10959</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C32">
-        <v>55.7019</v>
-      </c>
-      <c r="D32">
-        <v>9.536</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>sdr vejle</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MFD10959</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>55.7019</v>
-      </c>
-      <c r="D33">
-        <v>9.536</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>sdr vejle</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0-120 cm depth</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>MFD10960</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C34">
-        <v>55.4723</v>
-      </c>
-      <c r="D34">
-        <v>9.465999999999999</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>søndre vandværk kolding</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2018-08-20</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MFD10960</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C35">
-        <v>55.4723</v>
-      </c>
-      <c r="D35">
-        <v>9.465999999999999</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>søndre vandværk kolding</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-08-20</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2018-08-20</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>MFD10961</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C36">
-        <v>55.5975</v>
-      </c>
-      <c r="D36">
-        <v>9.6157</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>follerup</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>MFD10961</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C37">
-        <v>55.5975</v>
-      </c>
-      <c r="D37">
-        <v>9.6157</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>follerup</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2020-09-14</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>MFD10962</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C38">
-        <v>55.4938</v>
-      </c>
-      <c r="D38">
-        <v>8.4801</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>astrup</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-09</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>0-220 cm depth</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2020-11-09</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MFD10962</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C39">
-        <v>55.4938</v>
-      </c>
-      <c r="D39">
-        <v>8.4801</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>astrup</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-09</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>0-220 cm depth</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2020-11-09</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MFD10963</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C40">
-        <v>56.4749</v>
-      </c>
-      <c r="D40">
-        <v>9.411899999999999</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>nordværket</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MFD10963</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C41">
-        <v>56.4749</v>
-      </c>
-      <c r="D41">
-        <v>9.411899999999999</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>nordværket</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0-100 cm depth</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2020-10-22</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MFD10964</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C42">
-        <v>56.1431</v>
-      </c>
-      <c r="D42">
-        <v>9.1585</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">kildeværket </t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-15</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2021-04-15</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MFD10964</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C43">
-        <v>56.1431</v>
-      </c>
-      <c r="D43">
-        <v>9.1585</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">kildeværket </t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-15</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2021-04-15</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MFD10965</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C44">
-        <v>55.5045</v>
-      </c>
-      <c r="D44">
-        <v>8.494400000000001</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>esbjergværket</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-30</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2020-11-30</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Drinking water</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MFD10965</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>sandfilter</t>
-        </is>
-      </c>
-      <c r="C45">
-        <v>55.5045</v>
-      </c>
-      <c r="D45">
-        <v>8.494400000000001</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>drinking_water</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3120</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>esbjergværket</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-30</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0-140 cm depth</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>P16_2</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2020-11-30</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>waterworks stage</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
         <is>
           <t>sandfilter</t>
         </is>
